--- a/AAII_Financials/Yearly/LIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LIN_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14900000</v>
+        <v>28228000</v>
       </c>
       <c r="E8" s="3">
-        <v>11437000</v>
+        <v>14836000</v>
       </c>
       <c r="F8" s="3">
+        <v>11358000</v>
+      </c>
+      <c r="G8" s="3">
         <v>10534000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10776000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12273000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11925000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11224000</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9084000</v>
+        <v>16644000</v>
       </c>
       <c r="E9" s="3">
-        <v>6461000</v>
+        <v>9020000</v>
       </c>
       <c r="F9" s="3">
+        <v>6382000</v>
+      </c>
+      <c r="G9" s="3">
         <v>5855000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5960000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6962000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6744000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6396000</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11584000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5816000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4976000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4679000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4816000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5311000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5181000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4828000</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E12" s="3">
         <v>113000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>93000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>92000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>93000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>96000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>98000</v>
       </c>
       <c r="J12" s="3">
         <v>98000</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3">
+        <v>98000</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>392000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2992000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>48000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>182000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>139000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>108000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-14000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1000</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4675000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1830000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1184000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1122000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1106000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1170000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1109000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1001000</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9653000</v>
+        <v>25295000</v>
       </c>
       <c r="E17" s="3">
-        <v>8993000</v>
+        <v>9589000</v>
       </c>
       <c r="F17" s="3">
+        <v>8914000</v>
+      </c>
+      <c r="G17" s="3">
         <v>8287000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8455000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9665000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9300000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8787000</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2933000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5247000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2444000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2247000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2321000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2608000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2625000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2437000</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-114000</v>
+        <v>240000</v>
       </c>
       <c r="E20" s="3">
-        <v>314000</v>
+        <v>183000</v>
       </c>
       <c r="F20" s="3">
+        <v>355000</v>
+      </c>
+      <c r="G20" s="3">
         <v>220000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>15000</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6963000</v>
+        <v>7848000</v>
       </c>
       <c r="E21" s="3">
-        <v>3942000</v>
+        <v>7260000</v>
       </c>
       <c r="F21" s="3">
+        <v>3983000</v>
+      </c>
+      <c r="G21" s="3">
         <v>3589000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3427000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3778000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3738000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3453000</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>84000</v>
+        <v>246000</v>
       </c>
       <c r="E22" s="3">
-        <v>471000</v>
+        <v>381000</v>
       </c>
       <c r="F22" s="3">
+        <v>512000</v>
+      </c>
+      <c r="G22" s="3">
         <v>419000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>161000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>213000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>182000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>156000</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2927000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5049000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2287000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2048000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2160000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2395000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2447000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2296000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>878000</v>
+        <v>769000</v>
       </c>
       <c r="E24" s="3">
+        <v>507000</v>
+      </c>
+      <c r="F24" s="3">
         <v>632000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>551000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>612000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>691000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>649000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>586000</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4171000</v>
+        <v>2158000</v>
       </c>
       <c r="E26" s="3">
+        <v>4542000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1655000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1497000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1548000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1704000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1798000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1710000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4212000</v>
+        <v>2183000</v>
       </c>
       <c r="E27" s="3">
+        <v>4583000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1641000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1500000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1547000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1694000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1755000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1692000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1226,23 +1283,26 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>178000</v>
+        <v>102000</v>
       </c>
       <c r="E29" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="F29" s="3">
         <v>-394000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>114000</v>
+        <v>-240000</v>
       </c>
       <c r="E32" s="3">
-        <v>-314000</v>
+        <v>-183000</v>
       </c>
       <c r="F32" s="3">
+        <v>-355000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-220000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-15000</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4390000</v>
+        <v>2285000</v>
       </c>
       <c r="E33" s="3">
+        <v>4507000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1247000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1500000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1547000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1694000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1755000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1692000</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4390000</v>
+        <v>2285000</v>
       </c>
       <c r="E35" s="3">
+        <v>4507000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1247000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1500000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1547000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1694000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1755000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1692000</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1559,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2700000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4466000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>617000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>524000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>147000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>126000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>138000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>157000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,198 +1616,222 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4690000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4580000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1710000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1641000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1601000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1796000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1892000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1834000</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1697000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1651000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>614000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>550000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>531000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>551000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>506000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>476000</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1265000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6575000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>344000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>165000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>347000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>366000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>380000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>378000</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10352000</v>
+      </c>
+      <c r="E46" s="3">
         <v>17272000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3285000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2880000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2626000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2839000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2916000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2792000</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2217000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2049000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>793000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>777000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>710000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>744000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>745000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>709000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30089000</v>
+      </c>
+      <c r="E48" s="3">
         <v>29717000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11825000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11477000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10998000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11997000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12278000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11453000</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>43156000</v>
+      </c>
+      <c r="E49" s="3">
         <v>43097000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4028000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3700000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3554000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3724000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3790000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2680000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>798000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1251000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>515000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>498000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>431000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>465000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>526000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>625000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>86612000</v>
+      </c>
+      <c r="E54" s="3">
         <v>93386000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20436000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19332000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18319000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19769000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20255000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18090000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3266000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3219000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>922000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>906000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>791000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>864000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>921000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>928000</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3263000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3008000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1217000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>598000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>256000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>589000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>785000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>677000</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5631000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6729000</v>
       </c>
-      <c r="E59" s="3">
-        <v>1391000</v>
-      </c>
       <c r="F59" s="3">
+        <v>1187000</v>
+      </c>
+      <c r="G59" s="3">
         <v>974000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>846000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1336000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>958000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1038000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12160000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12956000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3307000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2478000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1893000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2490000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2664000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2479000</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10693000</v>
+      </c>
+      <c r="E61" s="3">
         <v>12288000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7783000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8917000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8975000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8636000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8026000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6685000</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12124000</v>
+      </c>
+      <c r="E62" s="3">
         <v>11046000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2826000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2485000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2545000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2457000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2255000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2253000</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37538000</v>
+      </c>
+      <c r="E66" s="3">
         <v>41790000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14418000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14311000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13930000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14146000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13646000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12026000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16842000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16529000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13224000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12879000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12229000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11461000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10528000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9534000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49074000</v>
+      </c>
+      <c r="E76" s="3">
         <v>51596000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6018000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5021000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4389000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5623000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6609000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6064000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4390000</v>
+        <v>2285000</v>
       </c>
       <c r="E81" s="3">
+        <v>4507000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1247000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1500000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1547000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1694000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1755000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1692000</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4675000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1830000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1184000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1122000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1106000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1170000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1109000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1001000</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6188000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3702000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3041000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2789000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2682000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2868000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2917000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2752000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3682000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1883000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1311000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1465000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1541000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1689000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2020000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2180000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1129000</v>
+      </c>
+      <c r="E94" s="3">
         <v>5340000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1314000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1770000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1303000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1803000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3237000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2378000</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1891000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1166000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-901000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-856000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-819000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-759000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-708000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-655000</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8992000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4996000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1656000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-659000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1297000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1008000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>328000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-303000</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-60000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>22000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>17000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-61000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-69000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-27000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1752000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3986000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>93000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>377000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>21000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>67000</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LIN_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27243000</v>
+      </c>
+      <c r="E8" s="3">
         <v>28228000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14836000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11358000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10534000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10776000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12273000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11925000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11224000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15383000</v>
+      </c>
+      <c r="E9" s="3">
         <v>16644000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9020000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6382000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5855000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5960000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6962000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6744000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6396000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11860000</v>
+      </c>
+      <c r="E10" s="3">
         <v>11584000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5816000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4976000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4679000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4816000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5311000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5181000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4828000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E12" s="3">
         <v>184000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>113000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>93000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>92000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>93000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>96000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>98000</v>
       </c>
       <c r="K12" s="3">
         <v>98000</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>98000</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>579000</v>
+      </c>
+      <c r="E14" s="3">
         <v>392000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2992000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>48000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>182000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>139000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>108000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-14000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4626000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4675000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1830000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1184000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1122000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1106000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1170000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1109000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1001000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>23921000</v>
+      </c>
+      <c r="E17" s="3">
         <v>25295000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9589000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8914000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8287000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8455000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9665000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9300000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8787000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3322000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2933000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5247000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2444000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2247000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2321000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2608000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2625000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2437000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E20" s="3">
         <v>240000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>183000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>355000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>220000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>8265000</v>
+      </c>
+      <c r="E21" s="3">
         <v>7848000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7260000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3983000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3589000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3427000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3778000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3738000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3453000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E22" s="3">
         <v>246000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>381000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>512000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>419000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>161000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>213000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>182000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>156000</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3384000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2927000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5049000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2287000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2048000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2160000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2395000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2447000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2296000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>847000</v>
+      </c>
+      <c r="E24" s="3">
         <v>769000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>507000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>632000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>551000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>612000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>691000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>649000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>586000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2537000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2158000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4542000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1655000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1497000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1548000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1704000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1798000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1710000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2497000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2183000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4583000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1641000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1500000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1547000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1694000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1755000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1692000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1286,26 +1343,29 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E29" s="3">
         <v>102000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-76000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-394000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-317000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-240000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-183000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-355000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-220000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2501000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2285000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4507000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1247000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1500000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1547000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1694000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1755000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1692000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2501000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2285000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4507000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1247000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1500000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1547000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1694000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1755000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1692000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3754000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2700000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4466000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>617000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>524000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>147000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>126000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>138000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>157000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,219 +1708,243 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4329000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4690000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4580000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1710000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1641000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1601000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1796000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1892000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1834000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1729000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1697000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1651000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>614000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>550000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>531000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>551000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>506000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>476000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1112000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1265000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6575000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>344000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>165000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>347000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>366000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>380000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>378000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10924000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10352000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17272000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3285000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2880000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2626000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2839000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2916000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2792000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2285000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2217000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2049000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>793000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>777000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>710000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>744000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>745000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>709000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29801000</v>
+      </c>
+      <c r="E48" s="3">
         <v>30089000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29717000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11825000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11477000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10998000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11997000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12278000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11453000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>44385000</v>
+      </c>
+      <c r="E49" s="3">
         <v>43156000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>43097000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4028000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3700000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3554000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3724000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3790000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2680000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>834000</v>
+      </c>
+      <c r="E52" s="3">
         <v>798000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1251000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>515000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>498000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>431000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>465000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>526000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>625000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>88229000</v>
+      </c>
+      <c r="E54" s="3">
         <v>86612000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>93386000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20436000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19332000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18319000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19769000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20255000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18090000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3095000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3266000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3219000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>922000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>906000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>791000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>864000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>921000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>928000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4002000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3263000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3008000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1217000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>598000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>256000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>589000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>785000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>677000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6643000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5631000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6729000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1187000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>974000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>846000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1336000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>958000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1038000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13740000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12160000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12956000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3307000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2478000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1893000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2490000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2664000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2479000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12152000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10693000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12288000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7783000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8917000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8975000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8636000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8026000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6685000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12755000</v>
+      </c>
+      <c r="E62" s="3">
         <v>12124000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11046000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2826000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2485000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2545000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2457000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2255000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2253000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40912000</v>
+      </c>
+      <c r="E66" s="3">
         <v>37538000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41790000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14418000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14311000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13930000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14146000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13646000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12026000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17178000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16842000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16529000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13224000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12879000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12229000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11461000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10528000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9534000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47317000</v>
+      </c>
+      <c r="E76" s="3">
         <v>49074000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>51596000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6018000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5021000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4389000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5623000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6609000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6064000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2501000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2285000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4507000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1247000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1500000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1547000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1694000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1755000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1692000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4626000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4675000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1830000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1184000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1122000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1106000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1170000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1109000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1001000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7429000</v>
+      </c>
+      <c r="E89" s="3">
         <v>6188000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3702000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3041000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2789000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2682000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2868000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2917000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2752000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3682000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1883000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1311000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1465000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1541000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1689000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2020000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2180000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2986000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1129000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5340000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1314000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1770000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1303000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1803000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3237000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2378000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2028000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1891000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1166000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-901000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-856000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-819000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-759000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-708000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-655000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3345000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8992000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4996000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1656000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-659000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1297000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1008000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>328000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-303000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-77000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-60000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>22000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>17000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-61000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-69000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-27000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1054000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1752000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3986000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>93000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>377000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-19000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>67000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LIN_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>30793000</v>
+      </c>
+      <c r="E8" s="3">
         <v>27243000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>28228000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14836000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11358000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10534000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10776000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12273000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11925000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11224000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17543000</v>
+      </c>
+      <c r="E9" s="3">
         <v>15383000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16644000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9020000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6382000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5855000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5960000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6962000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6744000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6396000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13250000</v>
+      </c>
+      <c r="E10" s="3">
         <v>11860000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11584000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5816000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4976000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4679000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4816000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5311000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5181000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4828000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E12" s="3">
         <v>152000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>184000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>113000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>93000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>92000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>93000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>96000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>98000</v>
       </c>
       <c r="L12" s="3">
         <v>98000</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3">
+        <v>98000</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>296000</v>
+      </c>
+      <c r="E14" s="3">
         <v>579000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>392000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2992000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>48000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>182000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>139000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>108000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-14000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4635000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4626000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4675000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1830000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1184000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1122000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1106000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1170000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1109000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1001000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>25809000</v>
+      </c>
+      <c r="E17" s="3">
         <v>23921000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25295000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9589000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8914000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8287000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8455000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9665000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9300000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8787000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4984000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3322000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2933000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5247000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2444000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2247000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2321000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2608000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2625000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2437000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>285000</v>
+      </c>
+      <c r="E20" s="3">
         <v>317000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>240000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>183000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>355000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>220000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>9904000</v>
+      </c>
+      <c r="E21" s="3">
         <v>8265000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7848000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7260000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3983000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3589000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3427000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3778000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3738000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3453000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E22" s="3">
         <v>255000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>246000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>381000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>512000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>419000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>161000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>213000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>182000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>156000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>5099000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3384000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2927000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5049000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2287000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2048000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2160000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2395000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2447000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2296000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1262000</v>
+      </c>
+      <c r="E24" s="3">
         <v>847000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>769000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>507000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>632000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>551000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>612000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>691000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>649000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>586000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3837000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2537000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2158000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4542000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1655000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1497000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1548000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1704000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1798000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1710000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3821000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2497000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2183000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4583000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1641000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1500000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1547000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1694000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1755000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1692000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1346,29 +1403,32 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E29" s="3">
         <v>4000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>102000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-76000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-394000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-285000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-317000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-240000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-183000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-355000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-220000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3826000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2501000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2285000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4507000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1247000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1500000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1547000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1694000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1755000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1692000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3826000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2501000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2285000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4507000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1247000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1500000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1547000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1694000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1755000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1692000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2823000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3754000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2700000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4466000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>617000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>524000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>147000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>126000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>138000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>157000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,240 +1800,264 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4633000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4329000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4690000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4580000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1710000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1641000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1601000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1796000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1892000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1834000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1733000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1729000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1697000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1651000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>614000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>550000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>531000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>551000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>506000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>476000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>970000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1112000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1265000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6575000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>344000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>165000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>347000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>366000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>380000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>378000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10159000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10924000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10352000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17272000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3285000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2880000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2626000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2839000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2916000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2792000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2742000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2285000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2217000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2049000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>793000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>777000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>710000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>744000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>745000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>709000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27019000</v>
+      </c>
+      <c r="E48" s="3">
         <v>29801000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30089000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29717000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11825000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11477000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10998000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11997000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12278000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11453000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40840000</v>
+      </c>
+      <c r="E49" s="3">
         <v>44385000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>43156000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>43097000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4028000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3700000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3554000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3724000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3790000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2680000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>845000</v>
+      </c>
+      <c r="E52" s="3">
         <v>834000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>798000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1251000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>515000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>498000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>431000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>465000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>526000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>625000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>81605000</v>
+      </c>
+      <c r="E54" s="3">
         <v>88229000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>86612000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>93386000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20436000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19332000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18319000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19769000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20255000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18090000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3503000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3095000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3266000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3219000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>922000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>906000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>791000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>864000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>921000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>928000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2872000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4002000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3263000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3008000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1217000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>598000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>256000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>589000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>785000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>677000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7268000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6643000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5631000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6729000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1187000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>974000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>846000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1336000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>958000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1038000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13643000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13740000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12160000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12956000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3307000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2478000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1893000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2490000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2664000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2479000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11335000</v>
+      </c>
+      <c r="E61" s="3">
         <v>12152000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10693000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12288000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7783000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8917000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8975000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8636000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8026000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6685000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11186000</v>
+      </c>
+      <c r="E62" s="3">
         <v>12755000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12124000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11046000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2826000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2485000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2545000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2457000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2255000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2253000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37570000</v>
+      </c>
+      <c r="E66" s="3">
         <v>40912000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37538000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41790000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14418000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14311000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13930000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14146000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13646000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12026000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18710000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17178000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16842000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16529000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13224000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12879000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12229000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11461000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10528000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9534000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44035000</v>
+      </c>
+      <c r="E76" s="3">
         <v>47317000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49074000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>51596000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6018000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5021000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4389000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5623000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6609000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6064000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3826000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2501000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2285000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4507000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1247000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1500000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1547000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1694000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1755000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1692000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4635000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4626000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4675000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1830000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1184000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1122000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1106000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1170000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1109000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1001000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9725000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7429000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6188000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3702000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3041000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2789000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2682000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2868000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2917000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2752000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3086000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3682000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1883000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1311000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1465000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1541000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1689000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2020000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2180000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3007000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2986000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1129000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5340000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1314000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1770000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1303000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1803000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3237000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2378000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2189000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2028000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1891000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1166000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-901000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-856000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-819000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-759000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-708000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-655000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7588000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3345000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8992000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4996000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1656000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-659000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1297000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1008000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>328000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-303000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-44000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-77000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-60000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>22000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>17000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-61000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-69000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-27000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-931000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1054000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1752000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3986000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>93000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>377000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>67000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LIN_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33364000</v>
+      </c>
+      <c r="E8" s="3">
         <v>30793000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27243000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>28228000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14836000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11358000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10534000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10776000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12273000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11925000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11224000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>19450000</v>
+      </c>
+      <c r="E9" s="3">
         <v>17543000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15383000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16644000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9020000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6382000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5855000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5960000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6962000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6744000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6396000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13914000</v>
+      </c>
+      <c r="E10" s="3">
         <v>13250000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11860000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11584000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5816000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4976000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4679000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4816000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5311000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5181000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4828000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -847,35 +860,38 @@
         <v>143000</v>
       </c>
       <c r="E12" s="3">
+        <v>143000</v>
+      </c>
+      <c r="F12" s="3">
         <v>152000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>184000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>113000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>93000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>92000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>93000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>96000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>98000</v>
       </c>
       <c r="M12" s="3">
         <v>98000</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3">
+        <v>98000</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1033000</v>
+      </c>
+      <c r="E14" s="3">
         <v>296000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>579000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>392000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2992000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>48000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>182000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>139000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>108000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-14000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4204000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4635000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4626000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4675000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1830000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1184000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1122000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1106000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1170000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1109000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1001000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>27995000</v>
+      </c>
+      <c r="E17" s="3">
         <v>25809000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23921000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25295000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9589000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8914000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8287000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8455000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9665000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9300000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8787000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>5369000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4984000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3322000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2933000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5247000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2444000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2247000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2321000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2608000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2625000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2437000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>389000</v>
+      </c>
+      <c r="E20" s="3">
         <v>285000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>317000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>240000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>183000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>355000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>220000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>9962000</v>
+      </c>
+      <c r="E21" s="3">
         <v>9904000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8265000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7848000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7260000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3983000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3589000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3427000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3778000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3738000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3453000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E22" s="3">
         <v>170000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>255000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>246000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>381000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>512000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>419000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>161000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>213000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>182000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>156000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>5543000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5099000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3384000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2927000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5049000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2287000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2048000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2160000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2395000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2447000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2296000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1262000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>847000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>769000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>507000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>632000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>551000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>612000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>691000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>649000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>586000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>4109000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3837000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2537000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2158000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4542000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1655000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1497000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1548000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1704000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1798000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1710000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>4147000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3821000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2497000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2183000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4583000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1641000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1547000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1694000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1755000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1692000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1406,32 +1463,35 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>5000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>4000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>102000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-76000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-394000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-389000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-285000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-317000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-240000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-183000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-355000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-220000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4147000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3826000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2501000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2285000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4507000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1247000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1547000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1694000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1755000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1692000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4147000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3826000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2501000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2285000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4507000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1247000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1547000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1694000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1755000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1692000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5436000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2823000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3754000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2700000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4466000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>617000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>524000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>147000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>126000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>138000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>157000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1803,261 +1892,285 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4683000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4633000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4329000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4690000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4580000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1710000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1641000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1601000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1796000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1892000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1834000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1978000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1733000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1729000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1697000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1651000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>614000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>550000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>531000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>551000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>506000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>476000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>950000</v>
+      </c>
+      <c r="E45" s="3">
         <v>970000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1112000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1265000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6575000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>344000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>165000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>347000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>366000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>380000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>378000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13047000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10159000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10924000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10352000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17272000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3285000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2880000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2626000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2839000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2916000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2792000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2698000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2742000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2285000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2217000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2049000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>793000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>777000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>710000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>744000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>745000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>709000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24420000</v>
+      </c>
+      <c r="E48" s="3">
         <v>27019000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29801000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>30089000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29717000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11825000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11477000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10998000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11997000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12278000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11453000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>38237000</v>
+      </c>
+      <c r="E49" s="3">
         <v>40840000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>44385000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>43156000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>43097000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4028000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3700000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3554000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3724000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3790000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2680000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1256000</v>
+      </c>
+      <c r="E52" s="3">
         <v>845000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>834000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>798000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1251000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>515000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>498000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>431000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>465000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>526000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>625000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>79658000</v>
+      </c>
+      <c r="E54" s="3">
         <v>81605000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>88229000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>86612000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>93386000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20436000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19332000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18319000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19769000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20255000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18090000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2995000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3503000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3095000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3266000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3219000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>922000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>906000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>791000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>864000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>921000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>928000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5716000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2872000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4002000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3263000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3008000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1217000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>598000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>256000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>589000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>785000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>677000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7768000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7268000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6643000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5631000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6729000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1187000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>974000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>846000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1336000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>958000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1038000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16479000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13643000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13740000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12160000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12956000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3307000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2478000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1893000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2490000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2664000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2479000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12198000</v>
+      </c>
+      <c r="E61" s="3">
         <v>11335000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12152000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10693000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12288000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7783000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8917000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8975000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8636000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8026000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6685000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9594000</v>
+      </c>
+      <c r="E62" s="3">
         <v>11186000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12755000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12124000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11046000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2826000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2485000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2545000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2457000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2255000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2253000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39630000</v>
+      </c>
+      <c r="E66" s="3">
         <v>37570000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>40912000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37538000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>41790000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14418000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14311000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13930000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14146000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13646000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12026000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20541000</v>
+      </c>
+      <c r="E72" s="3">
         <v>18710000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17178000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16842000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16529000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13224000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12879000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12229000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11461000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10528000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9534000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40028000</v>
+      </c>
+      <c r="E76" s="3">
         <v>44035000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47317000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49074000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>51596000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6018000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5021000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4389000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5623000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6609000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6064000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4147000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3826000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2501000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2285000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4507000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1247000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1547000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1694000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1755000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1692000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4204000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4635000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4626000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4675000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1830000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1184000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1122000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1106000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1170000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1109000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1001000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8864000</v>
+      </c>
+      <c r="E89" s="3">
         <v>9725000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7429000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6188000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3702000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3041000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2789000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2682000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2868000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2917000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2752000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3173000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3086000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3400000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3682000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1883000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1311000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1465000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1541000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1689000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2020000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2180000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3088000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3007000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2986000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1129000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5340000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1314000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1770000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1303000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1803000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3237000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2378000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2344000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2189000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2028000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1891000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1166000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-901000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-856000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-819000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-759000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-708000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-655000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3089000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7588000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3345000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8992000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4996000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1656000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-659000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1297000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1008000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>328000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-303000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-61000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-44000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-77000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-60000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>22000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>17000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-61000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-69000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-27000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2613000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-931000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1054000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1752000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3986000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>93000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>377000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>67000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LIN_YR_FIN.xlsx
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1033000</v>
+        <v>1051000</v>
       </c>
       <c r="E14" s="3">
-        <v>296000</v>
+        <v>309000</v>
       </c>
       <c r="F14" s="3">
-        <v>579000</v>
+        <v>589000</v>
       </c>
       <c r="G14" s="3">
-        <v>392000</v>
+        <v>400000</v>
       </c>
       <c r="H14" s="3">
-        <v>-2992000</v>
+        <v>-2984000</v>
       </c>
       <c r="I14" s="3">
-        <v>48000</v>
+        <v>54000</v>
       </c>
       <c r="J14" s="3">
-        <v>182000</v>
+        <v>187000</v>
       </c>
       <c r="K14" s="3">
         <v>139000</v>

--- a/AAII_Financials/Yearly/LIN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LIN_YR_FIN.xlsx
@@ -1902,22 +1902,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4683000</v>
+        <v>4908000</v>
       </c>
       <c r="E43" s="3">
-        <v>4633000</v>
+        <v>4829000</v>
       </c>
       <c r="F43" s="3">
-        <v>4329000</v>
+        <v>4590000</v>
       </c>
       <c r="G43" s="3">
-        <v>4690000</v>
+        <v>4965000</v>
       </c>
       <c r="H43" s="3">
-        <v>4580000</v>
+        <v>4830000</v>
       </c>
       <c r="I43" s="3">
-        <v>1710000</v>
+        <v>1804000</v>
       </c>
       <c r="J43" s="3">
         <v>1641000</v>
@@ -1980,22 +1980,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>950000</v>
+        <v>725000</v>
       </c>
       <c r="E45" s="3">
-        <v>970000</v>
+        <v>774000</v>
       </c>
       <c r="F45" s="3">
-        <v>1112000</v>
+        <v>851000</v>
       </c>
       <c r="G45" s="3">
-        <v>1265000</v>
+        <v>990000</v>
       </c>
       <c r="H45" s="3">
-        <v>6575000</v>
+        <v>6325000</v>
       </c>
       <c r="I45" s="3">
-        <v>344000</v>
+        <v>250000</v>
       </c>
       <c r="J45" s="3">
         <v>165000</v>
